--- a/SectionTwo-AprioriAlgorithm.xlsx
+++ b/SectionTwo-AprioriAlgorithm.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
   <si>
     <t>Apriori Algorithm</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>http://nikhilvithlani.blogspot.ie/2012/03/apriori-algorithm-for-data-mining-made.html?m=1</t>
   </si>
   <si>
@@ -183,7 +180,241 @@
     <t>ORIGINAL TABLE</t>
   </si>
   <si>
-    <t>NO. OF TRANSACTIONS</t>
+    <t>STEP 2</t>
+  </si>
+  <si>
+    <t>&lt; 6 (MINIMUM SUPPORT 30%)</t>
+  </si>
+  <si>
+    <t>ITEM PAIRS</t>
+  </si>
+  <si>
+    <t>NC, MSD</t>
+  </si>
+  <si>
+    <t>NC, ST</t>
+  </si>
+  <si>
+    <t>NC, PC</t>
+  </si>
+  <si>
+    <t>NC, PGG</t>
+  </si>
+  <si>
+    <t>NC, C</t>
+  </si>
+  <si>
+    <t>NC, PCT</t>
+  </si>
+  <si>
+    <t>NC, AE</t>
+  </si>
+  <si>
+    <t>MSD, ST</t>
+  </si>
+  <si>
+    <t>MSD, PC</t>
+  </si>
+  <si>
+    <t>MSD, PGG</t>
+  </si>
+  <si>
+    <t>MSD, C</t>
+  </si>
+  <si>
+    <t>MSD, PCT</t>
+  </si>
+  <si>
+    <t>MSD, AE</t>
+  </si>
+  <si>
+    <t>ST, PC</t>
+  </si>
+  <si>
+    <t>ST, PGG</t>
+  </si>
+  <si>
+    <t>ST, C</t>
+  </si>
+  <si>
+    <t>ST, PCT</t>
+  </si>
+  <si>
+    <t>ST, AE</t>
+  </si>
+  <si>
+    <t>PC, PGG</t>
+  </si>
+  <si>
+    <t>PC, C</t>
+  </si>
+  <si>
+    <t>PC, PCT</t>
+  </si>
+  <si>
+    <t>PC, AE</t>
+  </si>
+  <si>
+    <t>PGG, C</t>
+  </si>
+  <si>
+    <t>PGG, PCT</t>
+  </si>
+  <si>
+    <t>PGG, AE</t>
+  </si>
+  <si>
+    <t>C, PCT</t>
+  </si>
+  <si>
+    <t>C, AE</t>
+  </si>
+  <si>
+    <t>PCT, AE</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>STEP 3</t>
+  </si>
+  <si>
+    <t>MSD, ST, PC</t>
+  </si>
+  <si>
+    <t>MSD, PC, PGG</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
+  </si>
+  <si>
+    <t>6/20 = 30%</t>
+  </si>
+  <si>
+    <t>8/20 = 40%</t>
+  </si>
+  <si>
+    <t>9/20 = 45%</t>
+  </si>
+  <si>
+    <t>ITERATION 1</t>
+  </si>
+  <si>
+    <t>STEP 4 (LI)</t>
+  </si>
+  <si>
+    <t>STEP 5 (LI)</t>
+  </si>
+  <si>
+    <t>ITERATION 2</t>
+  </si>
+  <si>
+    <t>7/20 = 35%</t>
+  </si>
+  <si>
+    <t>PART B</t>
+  </si>
+  <si>
+    <t>ASSOCIATION RULES</t>
+  </si>
+  <si>
+    <t>{MSD} =&gt; {ST,PC}</t>
+  </si>
+  <si>
+    <t>7/14 = 50%</t>
+  </si>
+  <si>
+    <t>{ST} =&gt; {MSD, PC}</t>
+  </si>
+  <si>
+    <t>CONFIDENCE (ROUNDED)</t>
+  </si>
+  <si>
+    <t>7/11 = 64%</t>
+  </si>
+  <si>
+    <t>7/12 = 58%</t>
+  </si>
+  <si>
+    <t>{PC}=&gt;{MSD, ST}</t>
+  </si>
+  <si>
+    <t>{NC}=&gt;{PC}</t>
+  </si>
+  <si>
+    <t>6/8 = 75%</t>
+  </si>
+  <si>
+    <t>{MSD} =&gt; {ST}</t>
+  </si>
+  <si>
+    <t>8/10 = 80%</t>
+  </si>
+  <si>
+    <t>{MSD}=&gt;{PC}</t>
+  </si>
+  <si>
+    <t>{MSD}=&gt;{PGG}</t>
+  </si>
+  <si>
+    <t>6/10 = 60%</t>
+  </si>
+  <si>
+    <t>{ST}=&gt;{PC}</t>
+  </si>
+  <si>
+    <t>{PC}=&gt;{PGG}</t>
+  </si>
+  <si>
+    <t>8/14 = 57%</t>
+  </si>
+  <si>
+    <t>{PC}=&gt;{NC}</t>
+  </si>
+  <si>
+    <t>6/14 = 43%</t>
+  </si>
+  <si>
+    <t>8/11 = 73%</t>
+  </si>
+  <si>
+    <t>{ST} =&gt; {MSD}</t>
+  </si>
+  <si>
+    <t>8/12 = 67%</t>
+  </si>
+  <si>
+    <t>{PC}=&gt;{MSD}</t>
+  </si>
+  <si>
+    <t>9/11 = 82%</t>
+  </si>
+  <si>
+    <t>9/14 = 64%</t>
+  </si>
+  <si>
+    <t>6/11 = 55%</t>
+  </si>
+  <si>
+    <t>{PGG}=&gt;{MSD}</t>
+  </si>
+  <si>
+    <t>{PC}=&gt;{ST}</t>
+  </si>
+  <si>
+    <t>{PGG}=&gt;{PC}</t>
+  </si>
+  <si>
+    <t>TOP 10</t>
+  </si>
+  <si>
+    <t>%CONFIDENCE</t>
+  </si>
+  <si>
+    <t>9/12= 75%</t>
+  </si>
+  <si>
+    <t>PAIRS OF 3</t>
   </si>
 </sst>
 </file>
@@ -215,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,17 +454,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,403 +790,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="Q3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="U3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="X3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="U4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="6">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V5" s="6">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="X5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="6">
+        <v>11</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="6">
+        <v>6</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="6">
+        <v>5</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="6">
+        <v>8</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="6">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6">
+        <v>14</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="6">
+        <v>9</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="6">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="6">
+        <v>6</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="6">
+        <v>8</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="6">
+        <v>9</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="6">
+        <v>9</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="6">
+        <v>9</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="6">
+        <v>8</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E12" s="6">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="6">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E14" s="6">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E16" s="6">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="6">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="6">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="6">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="6">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="6">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="6">
+        <v>17</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="6">
         <v>19</v>
       </c>
-      <c r="E22">
+      <c r="F24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="6">
+        <v>20</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N30" s="4"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O35" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O36" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" s="6">
         <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -941,12 +1584,294 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
